--- a/RockSurface.xlsx
+++ b/RockSurface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\ARRS2021\Freeze-Thaw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{B46FF4D2-A1C8-45D0-B6A2-A4AEDB84FDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8724179F-73A8-48DA-BF68-87716AEBD1ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21269845-1B9B-4AAA-BA52-69E4896AB3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="2490" windowWidth="23640" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="2490" windowWidth="23640" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zasavje" sheetId="1" r:id="rId1"/>
@@ -1255,7 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2290" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -33883,7 +33883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3013"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
